--- a/anew/Gauss-Legendre Quadrature.xlsx
+++ b/anew/Gauss-Legendre Quadrature.xlsx
@@ -81,7 +81,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -158,11 +158,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -181,7 +184,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -214,7 +217,7 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -240,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -254,80 +257,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -405,7 +343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -715,7 +653,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="534991456"/>
@@ -777,7 +715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="313578576"/>
@@ -818,7 +756,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -896,7 +834,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -937,7 +875,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$65</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000000000000</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>1.7832807216964001E-3</c:v>
@@ -1206,7 +1144,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="323289264"/>
@@ -1234,7 +1172,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1268,7 +1206,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="319358464"/>
@@ -1309,7 +1247,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1387,7 +1325,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1416,7 +1354,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$65</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000000000000</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0.99930504173577195</c:v>
@@ -1673,7 +1611,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="323344976"/>
@@ -1704,7 +1642,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1732,7 +1670,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="323289680"/>
@@ -1773,7 +1711,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1851,7 +1789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2149,7 +2087,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="84178272"/>
@@ -2208,7 +2146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="84179520"/>
@@ -2249,7 +2187,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4604,7 +4542,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4862,18 +4800,20 @@
   <dimension ref="A1:BM131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.88671875" customWidth="1"/>
     <col min="15" max="15" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="38.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4896,14 +4836,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.399999999999999">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>1.7832807216964001E-3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>0.99930504173577195</v>
       </c>
       <c r="D2" s="2">
@@ -4922,14 +4862,14 @@
         <v>11.698587962885112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.399999999999999">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>4.1470332605625E-3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>0.996340116771955</v>
       </c>
       <c r="D3" s="2">
@@ -4941,14 +4881,14 @@
         <v>-0.12314880096129538</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17.399999999999999">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>6.5044579689784001E-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>0.99101337147674395</v>
       </c>
       <c r="D4" s="2">
@@ -4960,14 +4900,14 @@
         <v>-0.19028729124278715</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.399999999999999">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>8.8467598263639001E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>0.98333625388462598</v>
       </c>
       <c r="D5" s="2">
@@ -4979,14 +4919,14 @@
         <v>-0.2532329517566172</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>1.11681394601311E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>0.97332682778991098</v>
       </c>
       <c r="D6" s="2">
@@ -4998,14 +4938,14 @@
         <v>-0.31059214808201679</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>1.3463047896718599E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>0.96100879965205299</v>
       </c>
       <c r="D7" s="2">
@@ -5017,14 +4957,14 @@
         <v>-0.36110366202784955</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17.399999999999999">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>1.5726030476024701E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>0.94641137485840199</v>
       </c>
       <c r="D8" s="2">
@@ -5036,14 +4976,14 @@
         <v>-0.40366161898968489</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17.399999999999999">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>1.7951715775697302E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>0.92956917213193901</v>
       </c>
       <c r="D9" s="2">
@@ -5055,14 +4995,14 @@
         <v>-0.43733896576805731</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17.399999999999999">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>2.0134823153530199E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>0.91052213707850205</v>
       </c>
       <c r="D10" s="2">
@@ -5074,14 +5014,14 @@
         <v>-0.4614071242020491</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17.399999999999999">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>2.2270173808383299E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>0.88931544599511403</v>
       </c>
       <c r="D11" s="2">
@@ -5093,14 +5033,14 @@
         <v>-0.47535090250565204</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17.399999999999999">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>2.4352702568710902E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>0.86599939815409199</v>
       </c>
       <c r="D12" s="2">
@@ -5112,14 +5052,14 @@
         <v>-0.4788782433521156</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17.399999999999999">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>2.63774697150547E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>0.84062929625257998</v>
       </c>
       <c r="D13" s="2">
@@ -5131,14 +5071,14 @@
         <v>-0.47192458669100934</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="17.399999999999999">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>2.8339672614259501E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>0.81326531512279698</v>
       </c>
       <c r="D14" s="2">
@@ -5150,14 +5090,14 @@
         <v>-0.45465178000004819</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="17.399999999999999">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>3.0234657072402499E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>0.78397235894334105</v>
       </c>
       <c r="D15" s="2">
@@ -5169,14 +5109,14 @@
         <v>-0.42744161384708707</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="17.399999999999999">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>3.2057928354851599E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>0.75281990726053105</v>
       </c>
       <c r="D16" s="2">
@@ -5188,14 +5128,14 @@
         <v>-0.39088420003751828</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="17.399999999999999">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>3.3805161837141599E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>0.71988185017160999</v>
       </c>
       <c r="D17" s="2">
@@ -5207,14 +5147,14 @@
         <v>-0.34576154134046233</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="17.399999999999999">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>3.54722132568824E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>0.68523631305423305</v>
       </c>
       <c r="D18" s="2">
@@ -5226,14 +5166,14 @@
         <v>-0.29302676279896372</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="17.399999999999999">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>3.7055128540239998E-2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>0.64896547125465698</v>
       </c>
       <c r="D19" s="2">
@@ -5245,14 +5185,14 @@
         <v>-0.23377958186774947</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="17.399999999999999">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>3.8550153178615598E-2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>0.61115535517239294</v>
       </c>
       <c r="D20" s="2">
@@ -5264,14 +5204,14 @@
         <v>-0.16923868531439609</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17.399999999999999">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>3.9953741132720301E-2</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>0.571895646202634</v>
       </c>
       <c r="D21" s="2">
@@ -5283,14 +5223,14 @@
         <v>-0.10071175263919821</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="17.399999999999999">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>4.12625632426235E-2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>0.53127946401989401</v>
       </c>
       <c r="D22" s="2">
@@ -5302,14 +5242,14 @@
         <v>-2.9563916921554252E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="17.399999999999999">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>4.2473515123653598E-2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>0.48940314570705301</v>
       </c>
       <c r="D23" s="2">
@@ -5321,14 +5261,14 @@
         <v>4.281451671911083E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="17.399999999999999">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>4.3583724529323499E-2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>0.44636601725346398</v>
       </c>
       <c r="D24" s="2">
@@ -5340,14 +5280,14 @@
         <v>0.11504026803441691</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="17.399999999999999">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>4.4590558163756601E-2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>0.40227015796399102</v>
       </c>
       <c r="D25" s="2">
@@ -5359,14 +5299,14 @@
         <v>0.18576838249211006</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="17.399999999999999">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>4.54916279274181E-2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <v>0.35722015833766801</v>
       </c>
       <c r="D26" s="2">
@@ -5378,14 +5318,14 @@
         <v>0.25372186190896906</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="17.399999999999999">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <v>4.6284796581314402E-2</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>0.31132287199021103</v>
       </c>
       <c r="D27" s="2">
@@ -5397,14 +5337,14 @@
         <v>0.31771890844187983</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="17.399999999999999">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <v>4.696818281621E-2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <v>0.26468716220876698</v>
       </c>
       <c r="D28" s="2">
@@ -5416,14 +5356,14 @@
         <v>0.37669714179207653</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="17.399999999999999">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <v>4.7540165714830301E-2</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <v>0.217423643740007</v>
       </c>
       <c r="D29" s="2">
@@ -5435,14 +5375,14 @@
         <v>0.42973424196674942</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="17.399999999999999">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="5">
         <v>4.7999388596458303E-2</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <v>0.169644420423992</v>
       </c>
       <c r="D30" s="2">
@@ -5454,14 +5394,14 @@
         <v>0.47606457583712103</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="17.399999999999999">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="5">
         <v>4.8344762234803003E-2</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <v>0.12146281929612</v>
       </c>
       <c r="D31" s="2">
@@ -5473,14 +5413,14 @@
         <v>0.51509148188404263</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="17.399999999999999">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>4.85754674415034E-2</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <v>7.2993121787799001E-2</v>
       </c>
       <c r="D32" s="2">
@@ -5492,14 +5432,14 @@
         <v>0.54639501052617134</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="17.399999999999999">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="5">
         <v>4.8690957009139703E-2</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <v>2.4350292663424401E-2</v>
       </c>
       <c r="D33" s="2">
@@ -5511,14 +5451,14 @@
         <v>0.56973504372183081</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="17.399999999999999">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="5">
         <v>4.8690957009139703E-2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="5">
         <v>-2.4350292663424401E-2</v>
       </c>
       <c r="D34" s="2">
@@ -5530,14 +5470,14 @@
         <v>0.5850498435136553</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="17.399999999999999">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="5">
         <v>4.85754674415034E-2</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="5">
         <v>-7.2993121787799001E-2</v>
       </c>
       <c r="D35" s="2">
@@ -5549,14 +5489,14 @@
         <v>0.59245020129021653</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="17.399999999999999">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="5">
         <v>4.8344762234803003E-2</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="5">
         <v>-0.12146281929612</v>
       </c>
       <c r="D36" s="2">
@@ -5568,14 +5508,14 @@
         <v>0.59220947437457439</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="17.399999999999999">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="5">
         <v>4.7999388596458303E-2</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <v>-0.169644420423992</v>
       </c>
       <c r="D37" s="2">
@@ -5587,14 +5527,14 @@
         <v>0.58474990097580526</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="17.399999999999999">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="5">
         <v>4.7540165714830301E-2</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="5">
         <v>-0.217423643740007</v>
       </c>
       <c r="D38" s="2">
@@ -5606,14 +5546,14 @@
         <v>0.57062567576107359</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="17.399999999999999">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="5">
         <v>4.696818281621E-2</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="5">
         <v>-0.26468716220876698</v>
       </c>
       <c r="D39" s="2">
@@ -5625,14 +5565,14 @@
         <v>0.55050334395145972</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="17.399999999999999">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="5">
         <v>4.6284796581314402E-2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="5">
         <v>-0.31132287199021103</v>
       </c>
       <c r="D40" s="2">
@@ -5644,14 +5584,14 @@
         <v>0.52514013003250692</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="17.399999999999999">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="5">
         <v>4.54916279274181E-2</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="5">
         <v>-0.35722015833766801</v>
       </c>
       <c r="D41" s="2">
@@ -5663,14 +5603,14 @@
         <v>0.49536085655717788</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="17.399999999999999">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="5">
         <v>4.4590558163756601E-2</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="5">
         <v>-0.40227015796399102</v>
       </c>
       <c r="D42" s="2">
@@ -5682,14 +5622,14 @@
         <v>0.46203412833483287</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="17.399999999999999">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="5">
         <v>4.3583724529323499E-2</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="5">
         <v>-0.44636601725346398</v>
       </c>
       <c r="D43" s="2">
@@ -5701,14 +5641,14 @@
         <v>0.4260484573645229</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="17.399999999999999">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="5">
         <v>4.2473515123653598E-2</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="5">
         <v>-0.48940314570705301</v>
       </c>
       <c r="D44" s="2">
@@ -5720,14 +5660,14 @@
         <v>0.38828898459258854</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="17.399999999999999">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="5">
         <v>4.12625632426235E-2</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="5">
         <v>-0.53127946401989401</v>
       </c>
       <c r="D45" s="2">
@@ -5739,14 +5679,14 @@
         <v>0.34961541693128168</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="17.399999999999999">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="5">
         <v>3.9953741132720301E-2</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="5">
         <v>-0.571895646202634</v>
       </c>
       <c r="D46" s="2">
@@ -5758,14 +5698,14 @@
         <v>0.31084174348004284</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="17.399999999999999">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="5">
         <v>3.8550153178615598E-2</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="5">
         <v>-0.61115535517239294</v>
       </c>
       <c r="D47" s="2">
@@ -5777,14 +5717,14 @@
         <v>0.27271822554123959</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="17.399999999999999">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="5">
         <v>3.7055128540239998E-2</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="5">
         <v>-0.64896547125465698</v>
       </c>
       <c r="D48" s="2">
@@ -5796,14 +5736,14 @@
         <v>0.2359160732349509</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="17.399999999999999">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="5">
         <v>3.54722132568824E-2</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="5">
         <v>-0.68523631305423305</v>
       </c>
       <c r="D49" s="2">
@@ -5815,14 +5755,14 @@
         <v>0.20101513005474361</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="17.399999999999999">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="5">
         <v>3.3805161837141599E-2</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="5">
         <v>-0.71988185017160999</v>
       </c>
       <c r="D50" s="2">
@@ -5834,14 +5774,14 @@
         <v>0.16849478859069236</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="17.399999999999999">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="5">
         <v>3.2057928354851599E-2</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="5">
         <v>-0.75281990726053105</v>
       </c>
       <c r="D51" s="2">
@@ -5853,14 +5793,14 @@
         <v>0.1387282590711047</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="17.399999999999999">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="5">
         <v>3.0234657072402499E-2</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="5">
         <v>-0.78397235894334105</v>
       </c>
       <c r="D52" s="2">
@@ -5872,14 +5812,14 @@
         <v>0.111980210614811</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="17.399999999999999">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="5">
         <v>2.8339672614259501E-2</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="5">
         <v>-0.81326531512279698</v>
       </c>
       <c r="D53" s="2">
@@ -5891,14 +5831,14 @@
         <v>8.8407706409012576E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="17.399999999999999">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="5">
         <v>2.63774697150547E-2</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="5">
         <v>-0.84062929625257998</v>
       </c>
       <c r="D54" s="2">
@@ -5910,14 +5850,14 @@
         <v>6.8064261615534333E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="17.399999999999999">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="5">
         <v>2.4352702568710902E-2</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="5">
         <v>-0.86599939815409199</v>
       </c>
       <c r="D55" s="2">
@@ -5929,14 +5869,14 @@
         <v>5.090676969627865E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="17.399999999999999">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="5">
         <v>2.2270173808383299E-2</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="5">
         <v>-0.88931544599511403</v>
       </c>
       <c r="D56" s="2">
@@ -5948,14 +5888,14 @@
         <v>3.6804971893850444E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="17.399999999999999">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="5">
         <v>2.0134823153530199E-2</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="5">
         <v>-0.91052213707850205</v>
       </c>
       <c r="D57" s="2">
@@ -5967,14 +5907,14 @@
         <v>2.5553088505366209E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="17.399999999999999">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="5">
         <v>1.7951715775697302E-2</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="5">
         <v>-0.92956917213193901</v>
       </c>
       <c r="D58" s="2">
@@ -5986,14 +5926,14 @@
         <v>1.6883192003713084E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="17.399999999999999">
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="5">
         <v>1.5726030476024701E-2</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="5">
         <v>-0.94641137485840199</v>
       </c>
       <c r="D59" s="2">
@@ -6005,14 +5945,14 @@
         <v>1.047988390853037E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="17.399999999999999">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="5">
         <v>1.3463047896718599E-2</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="5">
         <v>-0.96100879965205299</v>
       </c>
       <c r="D60" s="2">
@@ -6024,14 +5964,14 @@
         <v>5.9958434701556495E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="17.399999999999999">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="5">
         <v>1.11681394601311E-2</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="5">
         <v>-0.97332682778991098</v>
       </c>
       <c r="D61" s="2">
@@ -6043,14 +5983,14 @@
         <v>3.0678532063820002E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="17.399999999999999">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="5">
         <v>8.8467598263639001E-3</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="5">
         <v>-0.98333625388462598</v>
       </c>
       <c r="D62" s="2">
@@ -6062,14 +6002,14 @@
         <v>1.332987445606977E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="17.399999999999999">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="5">
         <v>6.5044579689784001E-3</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="5">
         <v>-0.99101337147674395</v>
       </c>
       <c r="D63" s="2">
@@ -6081,14 +6021,14 @@
         <v>4.4480741770188081E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="17.399999999999999">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="5">
         <v>4.1470332605625E-3</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="5">
         <v>-0.996340116771955</v>
       </c>
       <c r="D64" s="2">
@@ -6100,14 +6040,14 @@
         <v>8.9732093232471847E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:65" ht="17.399999999999999">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="5">
         <v>1.7832807216964001E-3</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="5">
         <v>-0.99930504173577195</v>
       </c>
       <c r="D65" s="2">
@@ -6119,7 +6059,7 @@
         <v>4.5876279803145357E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:65" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:65" ht="18">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6186,7 +6126,7 @@
       <c r="BL66" s="2"/>
       <c r="BM66" s="2"/>
     </row>
-    <row r="67" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:65" ht="17.399999999999999">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -6253,7 +6193,7 @@
       <c r="BL67" s="2"/>
       <c r="BM67" s="2"/>
     </row>
-    <row r="68" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:65" ht="17.399999999999999">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6320,7 +6260,7 @@
       <c r="BL68" s="2"/>
       <c r="BM68" s="2"/>
     </row>
-    <row r="69" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:65" ht="17.399999999999999">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6386,190 +6326,190 @@
       <c r="BK69" s="2"/>
       <c r="BL69" s="2"/>
     </row>
-    <row r="70" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:65" ht="17.399999999999999">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:65" ht="17.399999999999999">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:65" ht="17.399999999999999">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:65" ht="17.399999999999999">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:65" ht="17.399999999999999">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:65" ht="17.399999999999999">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:65" ht="17.399999999999999">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:65" ht="17.399999999999999">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:65" ht="17.399999999999999">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:65" ht="17.399999999999999">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:65" ht="17.399999999999999">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="17.399999999999999">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="17.399999999999999">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="17.399999999999999">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="17.399999999999999">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="17.399999999999999">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="17.399999999999999">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="17.399999999999999">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="17.399999999999999">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="17.399999999999999">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="17.399999999999999">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="17.399999999999999">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="17.399999999999999">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="17.399999999999999">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="17.399999999999999">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="17.399999999999999">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="17.399999999999999">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="17.399999999999999">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="17.399999999999999">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="17.399999999999999">
       <c r="A99" s="2"/>
     </row>
-    <row r="100" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="17.399999999999999">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="17.399999999999999">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="17.399999999999999">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="17.399999999999999">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="17.399999999999999">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="17.399999999999999">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="17.399999999999999">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="17.399999999999999">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="17.399999999999999">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="17.399999999999999">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="17.399999999999999">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="17.399999999999999">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="17.399999999999999">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="17.399999999999999">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="17.399999999999999">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="17.399999999999999">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="17.399999999999999">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="17.399999999999999">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="17.399999999999999">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="17.399999999999999">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="17.399999999999999">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="17.399999999999999">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="17.399999999999999">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="17.399999999999999">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="17.399999999999999">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="17.399999999999999">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="17.399999999999999">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="17.399999999999999">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="17.399999999999999">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="17.399999999999999">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="17.399999999999999">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="17.399999999999999">
       <c r="A131" s="2"/>
     </row>
   </sheetData>
